--- a/xlsx3_20251220020930.xlsx
+++ b/xlsx3_20251220020930.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA10"/>
+  <dimension ref="A1:AA11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1607,6 +1607,43 @@
         </is>
       </c>
     </row>
+    <row r="11">
+      <c r="A11" s="3" t="inlineStr">
+        <is>
+          <t>14798078677128579308</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>https://channels.weixin.qq.com/platform/statistic/dashboardV4?objetctId=14798078677128579308&amp;entrance_id=3&amp;tab=product</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="inlineStr"/>
+      <c r="O11" t="inlineStr"/>
+      <c r="P11" t="inlineStr"/>
+      <c r="Q11" t="inlineStr"/>
+      <c r="R11" t="inlineStr"/>
+      <c r="S11" t="inlineStr"/>
+      <c r="T11" t="inlineStr"/>
+      <c r="U11" t="inlineStr"/>
+      <c r="V11" t="inlineStr"/>
+      <c r="W11" t="inlineStr"/>
+      <c r="X11" t="inlineStr"/>
+      <c r="Y11" t="inlineStr"/>
+      <c r="Z11" t="inlineStr"/>
+      <c r="AA11" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
